--- a/Midterm_prj_timelines.xlsx
+++ b/Midterm_prj_timelines.xlsx
@@ -5,31 +5,30 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIITB\2. Second Sem\RTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIITB\2. Second Sem\RTOS\Internet phone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timelines" sheetId="4" r:id="rId1"/>
     <sheet name="Project Status" sheetId="1" r:id="rId2"/>
-    <sheet name="Settings &amp; Calculations" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="HighlightActivities">'Project Status'!$G$5</definedName>
-    <definedName name="lstToDoHighlights">'Settings &amp; Calculations'!$E$5:$E$15</definedName>
+    <definedName name="lstToDoHighlights">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Print_Area_Reset</definedName>
     <definedName name="Print_Area_Reset">OFFSET('Project Status'!$A:$H,0,0,COUNTA('Project Status'!$B:$B)+5)</definedName>
-    <definedName name="valHEnd">'Settings &amp; Calculations'!$C$19</definedName>
-    <definedName name="valHStart">'Settings &amp; Calculations'!$C$18</definedName>
+    <definedName name="valHEnd">#REF!</definedName>
+    <definedName name="valHStart">#REF!</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>% Done</t>
   </si>
@@ -40,71 +39,13 @@
     <t>Progress</t>
   </si>
   <si>
-    <t>Highlight Start</t>
-  </si>
-  <si>
-    <t>Highlight End</t>
-  </si>
-  <si>
     <t>To be completed by:</t>
   </si>
   <si>
     <t>Deadline:</t>
   </si>
   <si>
-    <t>Highlight Activities</t>
-  </si>
-  <si>
-    <t>The tables below store settings and calculations for the Highlight Activities drop down list.
-Any changes could result in errors or loss of functionality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     This Week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     This Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     This Quarter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     This Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Last Week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Last Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Last Quarter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Last Year</t>
-  </si>
-  <si>
-    <t>Due:</t>
-  </si>
-  <si>
-    <t>Interval:</t>
-  </si>
-  <si>
-    <t>Start:</t>
-  </si>
-  <si>
-    <t>End:</t>
-  </si>
-  <si>
-    <t>No Highlight</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Selected Highlight:</t>
-  </si>
-  <si>
-    <t>Highlight Settings</t>
   </si>
   <si>
     <t>Task</t>
@@ -255,11 +196,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="[$-3409]dd\-mmm\-yy;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-3409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -269,14 +209,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -352,14 +284,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -722,103 +646,67 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="12" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -830,52 +718,63 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
@@ -883,36 +782,23 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="25">
     <dxf>
       <font>
-        <color theme="4" tint="-0.499984740745262"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -929,8 +815,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -938,9 +823,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -968,34 +853,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1047,6 +904,23 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="Tahoma"/>
         <family val="2"/>
@@ -1072,6 +946,23 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1107,6 +998,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1139,33 +1047,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1183,71 +1064,32 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tahoma"/>
-        <scheme val="minor"/>
+        <color auto="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tahoma"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tahoma"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tahoma"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1290,20 +1132,24 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1346,6 +1192,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1361,6 +1223,13 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1391,6 +1260,21 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="-0.499984740745262"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1448,11 +1332,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Project To Do List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Project To Do List" pivot="0" count="5">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1472,21 +1356,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblToDoList" displayName="tblToDoList" ref="B7:I19" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblToDoList" displayName="tblToDoList" ref="B7:I19" headerRowDxfId="18" dataDxfId="16" totalsRowDxfId="14" headerRowBorderDxfId="17" tableBorderDxfId="15">
   <autoFilter ref="B7:I19"/>
   <tableColumns count="8">
-    <tableColumn id="8" name="Task #" dataDxfId="9" totalsRowDxfId="15"/>
-    <tableColumn id="2" name="Task" dataDxfId="2" totalsRowDxfId="14"/>
-    <tableColumn id="7" name="Start Date" dataDxfId="8" totalsRowDxfId="13"/>
-    <tableColumn id="4" name="End Date" dataDxfId="7" totalsRowDxfId="12"/>
-    <tableColumn id="9" name="Duration" dataDxfId="6" totalsRowDxfId="10">
+    <tableColumn id="8" name="Task #" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" name="Task" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="7" name="Start Date" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="End Date" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" name="Duration" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="% Done" dataDxfId="5"/>
-    <tableColumn id="6" name="Progress" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="1" name="% Done" dataDxfId="3"/>
+    <tableColumn id="6" name="Progress" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>tblToDoList[[#This Row],[% Done]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Notes" dataDxfId="4" totalsRowDxfId="11"/>
+    <tableColumn id="5" name="Notes" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Project To Do List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1727,632 +1611,636 @@
   <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="27" width="5.7109375" style="40" customWidth="1"/>
+    <col min="3" max="27" width="5.7109375" style="26" customWidth="1"/>
     <col min="28" max="28" width="9.140625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="40" hidden="1"/>
+    <col min="29" max="16384" width="9.140625" style="26" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66"/>
-      <c r="AB1" s="79"/>
+    <row r="1" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="48"/>
+      <c r="AB1" s="59"/>
     </row>
-    <row r="2" spans="1:28" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="80"/>
+    <row r="2" spans="1:28" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="60"/>
     </row>
-    <row r="3" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="AB3" s="80"/>
+    <row r="3" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51"/>
+      <c r="AB3" s="60"/>
     </row>
-    <row r="4" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="str">
+    <row r="4" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="str">
         <f>tblToDoList[[#Headers],[Task]]</f>
         <v>Task</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="64">
         <f>'Project Status'!D8</f>
         <v>42788</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="48">
+      <c r="C4" s="65"/>
+      <c r="D4" s="64">
         <f>B4+1</f>
         <v>42789</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="48">
+      <c r="E4" s="65"/>
+      <c r="F4" s="64">
         <f>D4+1</f>
         <v>42790</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="48">
+      <c r="G4" s="65"/>
+      <c r="H4" s="64">
         <f>F4+1</f>
         <v>42791</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="48">
+      <c r="I4" s="65"/>
+      <c r="J4" s="64">
         <f>H4+1</f>
         <v>42792</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="48">
+      <c r="K4" s="65"/>
+      <c r="L4" s="64">
         <f>J4+1</f>
         <v>42793</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="48">
+      <c r="M4" s="65"/>
+      <c r="N4" s="64">
         <f>L4+1</f>
         <v>42794</v>
       </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="48">
+      <c r="O4" s="65"/>
+      <c r="P4" s="64">
         <f>N4+1</f>
         <v>42795</v>
       </c>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="48">
+      <c r="Q4" s="65"/>
+      <c r="R4" s="64">
         <f>P4+1</f>
         <v>42796</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="48">
+      <c r="S4" s="65"/>
+      <c r="T4" s="64">
         <f>R4+1</f>
         <v>42797</v>
       </c>
-      <c r="U4" s="49"/>
-      <c r="V4" s="48">
+      <c r="U4" s="65"/>
+      <c r="V4" s="64">
         <f>T4+1</f>
         <v>42798</v>
       </c>
-      <c r="W4" s="49"/>
-      <c r="X4" s="48">
+      <c r="W4" s="65"/>
+      <c r="X4" s="64">
         <f>V4+1</f>
         <v>42799</v>
       </c>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="48">
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="64">
         <f>X4+1</f>
         <v>42800</v>
       </c>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="80"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="60"/>
     </row>
-    <row r="5" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="80"/>
+    <row r="5" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="60"/>
     </row>
-    <row r="6" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="80"/>
+    <row r="6" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="60"/>
     </row>
-    <row r="7" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="80"/>
+    <row r="7" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="60"/>
     </row>
-    <row r="8" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="80"/>
+    <row r="8" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="60"/>
     </row>
-    <row r="9" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="80"/>
+    <row r="9" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="60"/>
     </row>
-    <row r="10" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="80"/>
+    <row r="10" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="60"/>
     </row>
-    <row r="11" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="80"/>
+    <row r="11" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="60"/>
     </row>
-    <row r="12" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="80"/>
+    <row r="12" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="60"/>
     </row>
-    <row r="13" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="80"/>
+    <row r="13" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="60"/>
     </row>
-    <row r="14" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="80"/>
+    <row r="14" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="60"/>
     </row>
-    <row r="15" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="80"/>
+    <row r="15" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="60"/>
     </row>
-    <row r="16" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="80"/>
+    <row r="16" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="60"/>
     </row>
-    <row r="17" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
-      <c r="AB17" s="80"/>
+    <row r="17" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="51"/>
+      <c r="AB17" s="60"/>
     </row>
-    <row r="18" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
-      <c r="C18" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="72"/>
-      <c r="AB18" s="80"/>
+    <row r="18" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+      <c r="C18" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="AB18" s="60"/>
     </row>
-    <row r="19" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="80"/>
+    <row r="19" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="60"/>
     </row>
-    <row r="20" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="69"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="80"/>
+    <row r="20" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="60"/>
     </row>
-    <row r="21" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="80"/>
+    <row r="21" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="60"/>
     </row>
-    <row r="22" spans="1:28" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="81"/>
+    <row r="22" spans="1:28" s="58" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="61"/>
     </row>
     <row r="23" spans="1:28" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="Z4:AA4"/>
@@ -2367,10 +2255,6 @@
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2382,10 +2266,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2393,8 +2277,8 @@
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="15" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
@@ -2404,428 +2288,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="24" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="2:10" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="21">
+      <c r="B5" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="18">
         <v>42802</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="24">
         <v>42788</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="24">
         <v>42790</v>
       </c>
-      <c r="F8" s="36" t="str">
+      <c r="F8" s="22" t="str">
         <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
         <v>3 Day(s)</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
         <v>1</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="38">
+      <c r="C9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="24">
         <v>42790</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="24">
         <v>42790</v>
       </c>
-      <c r="F9" s="36" t="str">
+      <c r="F9" s="22" t="str">
         <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
         <v>1 Day(s)</v>
       </c>
-      <c r="G9" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0.4</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>3</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="38">
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="24">
         <v>42790</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="24">
         <v>42792</v>
       </c>
-      <c r="F10" s="36" t="str">
+      <c r="F10" s="22" t="str">
         <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
         <v>3 Day(s)</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="H10" s="7">
+        <f>tblToDoList[[#This Row],[% Done]]</f>
+        <v>0.85</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="24">
+        <v>42790</v>
+      </c>
+      <c r="E11" s="24">
+        <v>42792</v>
+      </c>
+      <c r="F11" s="22" t="str">
+        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
+        <v>3 Day(s)</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H11" s="7">
+        <f>tblToDoList[[#This Row],[% Done]]</f>
+        <v>0.75</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="14">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="24">
+        <v>42792</v>
+      </c>
+      <c r="E12" s="24">
+        <v>42793</v>
+      </c>
+      <c r="F12" s="22" t="str">
+        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
+        <v>2 Day(s)</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="7">
+        <f>tblToDoList[[#This Row],[% Done]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="24">
+        <v>42792</v>
+      </c>
+      <c r="E13" s="24">
+        <v>42793</v>
+      </c>
+      <c r="F13" s="22" t="str">
+        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
+        <v>2 Day(s)</v>
+      </c>
+      <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H13" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
         <v>0</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I13" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="16">
-        <v>4</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="38">
-        <v>42790</v>
-      </c>
-      <c r="E11" s="38">
-        <v>42792</v>
-      </c>
-      <c r="F11" s="36" t="str">
+    <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="24">
+        <v>42793</v>
+      </c>
+      <c r="E14" s="24">
+        <v>42793</v>
+      </c>
+      <c r="F14" s="22" t="str">
+        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
+        <v>1 Day(s)</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <f>tblToDoList[[#This Row],[% Done]]</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="24">
+        <v>42794</v>
+      </c>
+      <c r="E15" s="24">
+        <v>42795</v>
+      </c>
+      <c r="F15" s="22" t="str">
+        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
+        <v>2 Day(s)</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <f>tblToDoList[[#This Row],[% Done]]</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="24">
+        <v>42797</v>
+      </c>
+      <c r="E16" s="24">
+        <v>42798</v>
+      </c>
+      <c r="F16" s="22" t="str">
+        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
+        <v>2 Day(s)</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <f>tblToDoList[[#This Row],[% Done]]</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="14">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="24">
+        <v>42797</v>
+      </c>
+      <c r="E17" s="24">
+        <v>42799</v>
+      </c>
+      <c r="F17" s="22" t="str">
         <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
         <v>3 Day(s)</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G17" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H17" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
         <v>0</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>36</v>
+      <c r="I17" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="16">
-        <v>5</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="38">
-        <v>42792</v>
-      </c>
-      <c r="E12" s="38">
-        <v>42793</v>
-      </c>
-      <c r="F12" s="36" t="str">
+    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="24">
+        <v>42799</v>
+      </c>
+      <c r="E18" s="24">
+        <v>42799</v>
+      </c>
+      <c r="F18" s="23" t="str">
         <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
-        <v>2 Day(s)</v>
-      </c>
-      <c r="G12" s="9">
+        <v>1 Day(s)</v>
+      </c>
+      <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H18" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>39</v>
+      <c r="I18" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="16">
-        <v>6</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="38">
-        <v>42792</v>
-      </c>
-      <c r="E13" s="38">
-        <v>42793</v>
-      </c>
-      <c r="F13" s="36" t="str">
+    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="24">
+        <v>42797</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="23" t="e">
         <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
-        <v>2 Day(s)</v>
-      </c>
-      <c r="G13" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H19" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="16">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="38">
-        <v>42793</v>
-      </c>
-      <c r="E14" s="38">
-        <v>42793</v>
-      </c>
-      <c r="F14" s="36" t="str">
-        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
-        <v>1 Day(s)</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="16">
-        <v>8</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="38">
-        <v>42794</v>
-      </c>
-      <c r="E15" s="38">
-        <v>42795</v>
-      </c>
-      <c r="F15" s="36" t="str">
-        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
-        <v>2 Day(s)</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="16">
-        <v>9</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="38">
-        <v>42797</v>
-      </c>
-      <c r="E16" s="38">
-        <v>42798</v>
-      </c>
-      <c r="F16" s="36" t="str">
-        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
-        <v>2 Day(s)</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="16">
-        <v>10</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="38">
-        <v>42797</v>
-      </c>
-      <c r="E17" s="38">
-        <v>42799</v>
-      </c>
-      <c r="F17" s="36" t="str">
-        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
-        <v>3 Day(s)</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="16">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="38">
-        <v>42799</v>
-      </c>
-      <c r="E18" s="38">
-        <v>42799</v>
-      </c>
-      <c r="F18" s="37" t="str">
-        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
-        <v>1 Day(s)</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="16">
-        <v>12</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="38">
-        <v>42797</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="37" t="e">
-        <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>52</v>
+      <c r="I19" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2836,7 +2716,7 @@
     <mergeCell ref="B5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:I19">
-    <cfRule type="expression" dxfId="0" priority="26">
+    <cfRule type="expression" dxfId="19" priority="26">
       <formula>($D8&gt;=valHStart)*($D8&lt;=valHEnd)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2883,6 +2763,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D4471C09-E8C8-4136-91E1-BB922ACEFDB7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H8:H19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="42" id="{2645DCD5-0397-4C10-8F80-F163C39C9F6D}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
@@ -2901,306 +2796,139 @@
           </x14:cfRule>
           <xm:sqref>G8:G19</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D4471C09-E8C8-4136-91E1-BB922ACEFDB7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H8:H19</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
-    <tabColor theme="4" tint="-0.499984740745262"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:F20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4" style="29" customWidth="1"/>
-    <col min="2" max="2" width="21" style="29" customWidth="1"/>
-    <col min="3" max="3" width="40" style="29" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" spans="2:6" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="3" t="str">
-        <f>B5</f>
-        <v>No Highlight</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="33">
-        <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>42786</v>
-      </c>
-      <c r="D7" s="33">
-        <f ca="1">C7+6</f>
-        <v>42792</v>
-      </c>
-      <c r="E7" s="3" t="str">
-        <f ca="1">B7&amp;" ["&amp;TEXT(C7,"d mmm")&amp;" - "&amp;TEXT(D7,"d mmm")&amp;"]"</f>
-        <v xml:space="preserve">     This Week [20 Feb - 26 Feb]</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="33">
-        <f ca="1">EOMONTH(TODAY(),-1)+1</f>
-        <v>42767</v>
-      </c>
-      <c r="D8" s="33">
-        <f ca="1">EDATE(C8,1)-1</f>
-        <v>42794</v>
-      </c>
-      <c r="E8" s="3" t="str">
-        <f ca="1">B8&amp;" ["&amp;TEXT(C8,"d")&amp;" - "&amp;TEXT(D8,"d, mmm")&amp;"]"</f>
-        <v xml:space="preserve">     This Month [1 - 28, Feb]</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="33">
-        <f ca="1">DATE(YEAR(TODAY()),INT(MONTH(TODAY())/3)+1,1)</f>
-        <v>42736</v>
-      </c>
-      <c r="D9" s="33">
-        <f ca="1">EDATE(C9,4)-1</f>
-        <v>42855</v>
-      </c>
-      <c r="E9" s="3" t="str">
-        <f ca="1">B9&amp;" ["&amp;TEXT(C9,"d mmm")&amp;" - "&amp;TEXT(D9,"d mmm")&amp;"]"</f>
-        <v xml:space="preserve">     This Quarter [1 Jan - 30 Apr]</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="33">
-        <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>42736</v>
-      </c>
-      <c r="D10" s="33">
-        <f ca="1">EDATE(C10,12)-1</f>
-        <v>43100</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f ca="1">B10&amp;" ["&amp;TEXT(C10,"yyyy")&amp;"]"</f>
-        <v xml:space="preserve">     This Year [2017]</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32" t="str">
-        <f>B11</f>
-        <v>Interval:</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="33">
-        <f ca="1">C7-7</f>
-        <v>42779</v>
-      </c>
-      <c r="D12" s="33">
-        <f ca="1">C12+6</f>
-        <v>42785</v>
-      </c>
-      <c r="E12" s="3" t="str">
-        <f ca="1">B12&amp;" ["&amp;TEXT(C12,"d mmm")&amp;" - "&amp;TEXT(D12,"d mmm")&amp;"]"</f>
-        <v xml:space="preserve">     Last Week [13 Feb - 19 Feb]</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="33">
-        <f ca="1">EDATE(C8,-1)</f>
-        <v>42736</v>
-      </c>
-      <c r="D13" s="33">
-        <f ca="1">EDATE(C13,1)-1</f>
-        <v>42766</v>
-      </c>
-      <c r="E13" s="3" t="str">
-        <f ca="1">B13&amp;" ["&amp;TEXT(C13,"d")&amp;" - "&amp;TEXT(D13,"d, mmm")&amp;"]"</f>
-        <v xml:space="preserve">     Last Month [1 - 31, Jan]</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="33">
-        <f ca="1">EDATE(C9,-3)</f>
-        <v>42644</v>
-      </c>
-      <c r="D14" s="33">
-        <f ca="1">EDATE(C14,3)-1</f>
-        <v>42735</v>
-      </c>
-      <c r="E14" s="3" t="str">
-        <f ca="1">B14&amp;" ["&amp;TEXT(C14,"d mmm")&amp;" - "&amp;TEXT(D14,"d mmm")&amp;"]"</f>
-        <v xml:space="preserve">     Last Quarter [1 Oct - 31 Dec]</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="33">
-        <f ca="1">EDATE(C10,-12)</f>
-        <v>42370</v>
-      </c>
-      <c r="D15" s="33">
-        <f ca="1">EDATE(C15,12)-1</f>
-        <v>42735</v>
-      </c>
-      <c r="E15" s="3" t="str">
-        <f>B15</f>
-        <v xml:space="preserve">     Last Year</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3">
-        <f>IFERROR(MATCH(HighlightActivities,lstToDoHighlights,0),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="str">
-        <f>HighlightActivities</f>
-        <v>No Highlight</v>
-      </c>
-      <c r="E17" s="3" t="b">
-        <f>ISNUMBER(INDEX($C$6:$C$15,C17))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="33" t="str">
-        <f>IFERROR(IF(C17=1,"",IF(E17,INDEX($C$6:$C$15,$C$17),"")),"")</f>
-        <v/>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="33" t="str">
-        <f>IFERROR(IF(C17=1,"",IF(E17,INDEX($D$6:$D$15,$C$17),"")),"")</f>
-        <v/>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E8 E13" formula="1"/>
-  </ignoredErrors>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">845884</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-06-28T22:28:16+00:00</AssetStart>
+    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
+    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Value>1589969</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId>2566</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
+    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
+    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
+    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
+    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
+    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsSearchable>
+    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
+    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102929978</AssetId>
+    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
+    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
+    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101006EDDDB5EE6D98C44930B742096920B300400F5B6D36B3EF94B4E9A635CDF2A18F5B8" ma:contentTypeVersion="72" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a23e56308344d904b51738559c3d67c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4873beb7-5857-4685-be1f-d57550cc96cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd0908cc4600e77bf5da051303e00c8d" ns2:_="">
     <xsd:import namespace="4873beb7-5857-4685-be1f-d57550cc96cc"/>
@@ -4240,7 +3968,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4249,133 +3977,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">845884</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-06-28T22:28:16+00:00</AssetStart>
-    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
-    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Value>1589969</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId>2566</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
-    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
-    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
-    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
-    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
-    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsSearchable>
-    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
-    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102929978</AssetId>
-    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
-    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
-    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF14A3F8-E631-45ED-BAB0-F6B4C56D5460}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{669C7D95-0EE0-4769-AC8E-827159D2F436}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4393,26 +4011,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F9C745-E09A-4668-8378-93EF7953239B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF14A3F8-E631-45ED-BAB0-F6B4C56D5460}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Midterm_prj_timelines.xlsx
+++ b/Midterm_prj_timelines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timelines" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>% Done</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Write-up and paper work</t>
-  </si>
-  <si>
-    <t>Start simultaneously with task # 9</t>
   </si>
   <si>
     <t>Submit (laptop version)</t>
@@ -344,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -642,6 +639,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
@@ -649,7 +657,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -723,7 +731,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -775,6 +782,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
@@ -1611,7 +1629,7 @@
   <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1623,98 +1641,98 @@
     <col min="29" max="16384" width="9.140625" style="26" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48"/>
-      <c r="AB1" s="59"/>
+    <row r="1" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47"/>
+      <c r="AB1" s="58"/>
     </row>
     <row r="2" spans="1:28" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="60"/>
+      <c r="AB2" s="59"/>
     </row>
     <row r="3" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="AB3" s="60"/>
+      <c r="A3" s="50"/>
+      <c r="AB3" s="59"/>
     </row>
     <row r="4" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="str">
+      <c r="A4" s="51" t="str">
         <f>tblToDoList[[#Headers],[Task]]</f>
         <v>Task</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="63">
         <f>'Project Status'!D8</f>
         <v>42788</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="64">
+      <c r="C4" s="64"/>
+      <c r="D4" s="63">
         <f>B4+1</f>
         <v>42789</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="64">
+      <c r="E4" s="64"/>
+      <c r="F4" s="63">
         <f>D4+1</f>
         <v>42790</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="64">
+      <c r="G4" s="64"/>
+      <c r="H4" s="63">
         <f>F4+1</f>
         <v>42791</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="64">
+      <c r="I4" s="64"/>
+      <c r="J4" s="63">
         <f>H4+1</f>
         <v>42792</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="64">
+      <c r="K4" s="64"/>
+      <c r="L4" s="63">
         <f>J4+1</f>
         <v>42793</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="64">
+      <c r="M4" s="64"/>
+      <c r="N4" s="63">
         <f>L4+1</f>
         <v>42794</v>
       </c>
-      <c r="O4" s="65"/>
-      <c r="P4" s="64">
+      <c r="O4" s="64"/>
+      <c r="P4" s="63">
         <f>N4+1</f>
         <v>42795</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="64">
+      <c r="Q4" s="64"/>
+      <c r="R4" s="63">
         <f>P4+1</f>
         <v>42796</v>
       </c>
-      <c r="S4" s="65"/>
-      <c r="T4" s="64">
+      <c r="S4" s="64"/>
+      <c r="T4" s="63">
         <f>R4+1</f>
         <v>42797</v>
       </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="64">
+      <c r="U4" s="64"/>
+      <c r="V4" s="63">
         <f>T4+1</f>
         <v>42798</v>
       </c>
-      <c r="W4" s="65"/>
-      <c r="X4" s="64">
+      <c r="W4" s="64"/>
+      <c r="X4" s="63">
         <f>V4+1</f>
         <v>42799</v>
       </c>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="64">
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="63">
         <f>X4+1</f>
         <v>42800</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="60"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="59"/>
     </row>
     <row r="5" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
+      <c r="A5" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
@@ -1739,17 +1757,17 @@
       <c r="Y5" s="28"/>
       <c r="Z5" s="28"/>
       <c r="AA5" s="29"/>
-      <c r="AB5" s="60"/>
+      <c r="AB5" s="59"/>
     </row>
     <row r="6" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
-        <v>38</v>
+      <c r="A6" s="52" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="35"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -1771,23 +1789,23 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="31"/>
-      <c r="AB6" s="60"/>
+      <c r="AB6" s="59"/>
     </row>
     <row r="7" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
-        <v>39</v>
+      <c r="A7" s="52" t="s">
+        <v>38</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="21"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="80"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
@@ -1803,23 +1821,23 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="31"/>
-      <c r="AB7" s="60"/>
+      <c r="AB7" s="59"/>
     </row>
     <row r="8" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
-        <v>40</v>
+      <c r="A8" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="21"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="80"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -1835,11 +1853,11 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
       <c r="AA8" s="31"/>
-      <c r="AB8" s="60"/>
+      <c r="AB8" s="59"/>
     </row>
     <row r="9" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>41</v>
+      <c r="A9" s="52" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="21"/>
@@ -1849,10 +1867,10 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
@@ -1867,11 +1885,11 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="31"/>
-      <c r="AB9" s="60"/>
+      <c r="AB9" s="59"/>
     </row>
     <row r="10" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>42</v>
+      <c r="A10" s="52" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="21"/>
@@ -1881,10 +1899,10 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="75"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -1899,11 +1917,11 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="31"/>
-      <c r="AB10" s="60"/>
+      <c r="AB10" s="59"/>
     </row>
     <row r="11" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>43</v>
+      <c r="A11" s="52" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="21"/>
@@ -1915,9 +1933,9 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="74"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -1931,11 +1949,11 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="31"/>
-      <c r="AB11" s="60"/>
+      <c r="AB11" s="59"/>
     </row>
     <row r="12" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>44</v>
+      <c r="A12" s="52" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="21"/>
@@ -1949,10 +1967,10 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="37"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="74"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
@@ -1963,11 +1981,11 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
       <c r="AA12" s="31"/>
-      <c r="AB12" s="60"/>
+      <c r="AB12" s="59"/>
     </row>
     <row r="13" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
-        <v>45</v>
+      <c r="A13" s="52" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="21"/>
@@ -1995,11 +2013,11 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="31"/>
-      <c r="AB13" s="60"/>
+      <c r="AB13" s="59"/>
     </row>
     <row r="14" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
-        <v>46</v>
+      <c r="A14" s="52" t="s">
+        <v>45</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="21"/>
@@ -2016,22 +2034,22 @@
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
       <c r="U14" s="36"/>
       <c r="V14" s="36"/>
       <c r="W14" s="36"/>
-      <c r="X14" s="38"/>
+      <c r="X14" s="36"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="31"/>
-      <c r="AB14" s="60"/>
+      <c r="AB14" s="59"/>
     </row>
     <row r="15" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
-        <v>47</v>
+      <c r="A15" s="52" t="s">
+        <v>46</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="21"/>
@@ -2056,14 +2074,14 @@
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
-      <c r="Y15" s="39"/>
+      <c r="Y15" s="79"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="31"/>
-      <c r="AB15" s="60"/>
+      <c r="AB15" s="59"/>
     </row>
     <row r="16" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
-        <v>48</v>
+      <c r="A16" s="52" t="s">
+        <v>47</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
@@ -2091,29 +2109,29 @@
       <c r="Y16" s="36"/>
       <c r="Z16" s="36"/>
       <c r="AA16" s="37"/>
-      <c r="AB16" s="60"/>
+      <c r="AB16" s="59"/>
     </row>
     <row r="17" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="AB17" s="60"/>
+      <c r="A17" s="50"/>
+      <c r="AB17" s="59"/>
     </row>
     <row r="18" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="C18" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="68"/>
-      <c r="AB18" s="60"/>
+      <c r="A18" s="50"/>
+      <c r="C18" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="AB18" s="59"/>
     </row>
     <row r="19" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="21"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -2135,18 +2153,18 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
-      <c r="AB19" s="60"/>
+      <c r="AB19" s="59"/>
     </row>
     <row r="20" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="54"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -2167,17 +2185,17 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
-      <c r="AB20" s="60"/>
+      <c r="AB20" s="59"/>
     </row>
     <row r="21" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -2199,50 +2217,44 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
-      <c r="AB21" s="60"/>
+      <c r="AB21" s="59"/>
     </row>
-    <row r="22" spans="1:28" s="58" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="61"/>
+    <row r="22" spans="1:28" s="57" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="60"/>
     </row>
     <row r="23" spans="1:28" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="D21:F21"/>
@@ -2255,8 +2267,15 @@
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2269,7 +2288,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2316,28 +2335,28 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="63"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="2:10" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="18">
         <v>42802</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="62"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -2361,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>0</v>
@@ -2407,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="24">
         <v>42790</v>
@@ -2474,11 +2493,11 @@
         <v>3 Day(s)</v>
       </c>
       <c r="G11" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H11" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>17</v>
@@ -2502,11 +2521,11 @@
         <v>2 Day(s)</v>
       </c>
       <c r="G12" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>20</v>
@@ -2530,11 +2549,11 @@
         <v>2 Day(s)</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>18</v>
@@ -2558,11 +2577,11 @@
         <v>1 Day(s)</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>23</v>
@@ -2586,11 +2605,11 @@
         <v>2 Day(s)</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>25</v>
@@ -2632,14 +2651,14 @@
         <v>28</v>
       </c>
       <c r="D17" s="24">
-        <v>42797</v>
+        <v>42795</v>
       </c>
       <c r="E17" s="24">
         <v>42799</v>
       </c>
       <c r="F17" s="22" t="str">
         <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
-        <v>3 Day(s)</v>
+        <v>5 Day(s)</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -2649,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2657,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="24">
         <v>42799</v>
@@ -2677,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2685,13 +2704,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="24">
         <v>42797</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="23" t="e">
         <f>_xlfn.CONCAT((tblToDoList[[#This Row],[End Date]]-tblToDoList[[#This Row],[Start Date]]+1)," Day(s)")</f>
@@ -2705,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2929,6 +2948,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101006EDDDB5EE6D98C44930B742096920B300400F5B6D36B3EF94B4E9A635CDF2A18F5B8" ma:contentTypeVersion="72" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a23e56308344d904b51738559c3d67c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4873beb7-5857-4685-be1f-d57550cc96cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd0908cc4600e77bf5da051303e00c8d" ns2:_="">
     <xsd:import namespace="4873beb7-5857-4685-be1f-d57550cc96cc"/>
@@ -3968,15 +3996,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF14A3F8-E631-45ED-BAB0-F6B4C56D5460}">
   <ds:schemaRefs>
@@ -3994,6 +4013,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F9C745-E09A-4668-8378-93EF7953239B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{669C7D95-0EE0-4769-AC8E-827159D2F436}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4009,12 +4036,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F9C745-E09A-4668-8378-93EF7953239B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Midterm_prj_timelines.xlsx
+++ b/Midterm_prj_timelines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="4665" yWindow="0" windowWidth="19560" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Timelines" sheetId="4" r:id="rId1"/>
@@ -657,7 +657,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -719,7 +719,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -761,27 +760,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -793,6 +771,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
@@ -1628,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1641,134 +1640,134 @@
     <col min="29" max="16384" width="9.140625" style="26" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="AB1" s="58"/>
+    <row r="1" spans="1:28" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46"/>
+      <c r="AB1" s="57"/>
     </row>
     <row r="2" spans="1:28" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="59"/>
+      <c r="AB2" s="58"/>
     </row>
     <row r="3" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="AB3" s="59"/>
+      <c r="A3" s="49"/>
+      <c r="AB3" s="58"/>
     </row>
     <row r="4" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="str">
+      <c r="A4" s="50" t="str">
         <f>tblToDoList[[#Headers],[Task]]</f>
         <v>Task</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="73">
         <f>'Project Status'!D8</f>
         <v>42788</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="63">
+      <c r="C4" s="74"/>
+      <c r="D4" s="73">
         <f>B4+1</f>
         <v>42789</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="63">
+      <c r="E4" s="74"/>
+      <c r="F4" s="73">
         <f>D4+1</f>
         <v>42790</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="63">
+      <c r="G4" s="74"/>
+      <c r="H4" s="73">
         <f>F4+1</f>
         <v>42791</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="63">
+      <c r="I4" s="74"/>
+      <c r="J4" s="73">
         <f>H4+1</f>
         <v>42792</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="63">
+      <c r="K4" s="74"/>
+      <c r="L4" s="73">
         <f>J4+1</f>
         <v>42793</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="63">
+      <c r="M4" s="74"/>
+      <c r="N4" s="73">
         <f>L4+1</f>
         <v>42794</v>
       </c>
-      <c r="O4" s="64"/>
-      <c r="P4" s="63">
+      <c r="O4" s="74"/>
+      <c r="P4" s="73">
         <f>N4+1</f>
         <v>42795</v>
       </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="63">
+      <c r="Q4" s="74"/>
+      <c r="R4" s="73">
         <f>P4+1</f>
         <v>42796</v>
       </c>
-      <c r="S4" s="64"/>
-      <c r="T4" s="63">
+      <c r="S4" s="74"/>
+      <c r="T4" s="73">
         <f>R4+1</f>
         <v>42797</v>
       </c>
-      <c r="U4" s="64"/>
-      <c r="V4" s="63">
+      <c r="U4" s="74"/>
+      <c r="V4" s="73">
         <f>T4+1</f>
         <v>42798</v>
       </c>
-      <c r="W4" s="64"/>
-      <c r="X4" s="63">
+      <c r="W4" s="74"/>
+      <c r="X4" s="73">
         <f>V4+1</f>
         <v>42799</v>
       </c>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="63">
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="73">
         <f>X4+1</f>
         <v>42800</v>
       </c>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="59"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="58"/>
     </row>
     <row r="5" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="59"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="58"/>
     </row>
     <row r="6" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -1788,24 +1787,24 @@
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="59"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="58"/>
     </row>
     <row r="7" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="80"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
@@ -1820,24 +1819,24 @@
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="59"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="58"/>
     </row>
     <row r="8" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="80"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
@@ -1852,14 +1851,14 @@
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="59"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="58"/>
     </row>
     <row r="9" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -1867,10 +1866,10 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="74"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
@@ -1884,14 +1883,14 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="59"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="58"/>
     </row>
     <row r="10" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -1899,10 +1898,10 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="75"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="67"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -1916,14 +1915,14 @@
       <c r="X10" s="21"/>
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="59"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="58"/>
     </row>
     <row r="11" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -1933,9 +1932,9 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="74"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="66"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -1948,14 +1947,14 @@
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="59"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="58"/>
     </row>
     <row r="12" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -1967,10 +1966,10 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="74"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="66"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
@@ -1980,14 +1979,14 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="59"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="58"/>
     </row>
     <row r="13" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -2005,21 +2004,21 @@
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="29"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="63"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="59"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="58"/>
     </row>
     <row r="14" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -2034,24 +2033,24 @@
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="37"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="62"/>
       <c r="Z14" s="21"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="59"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="58"/>
     </row>
     <row r="15" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -2074,64 +2073,64 @@
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
-      <c r="Y15" s="79"/>
+      <c r="Y15" s="71"/>
       <c r="Z15" s="21"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="59"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="58"/>
     </row>
     <row r="16" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="59"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="58"/>
     </row>
     <row r="17" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="AB17" s="59"/>
+      <c r="A17" s="49"/>
+      <c r="AB17" s="58"/>
     </row>
     <row r="18" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="C18" s="67" t="s">
+      <c r="A18" s="49"/>
+      <c r="C18" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="AB18" s="59"/>
+      <c r="D18" s="75"/>
+      <c r="AB18" s="58"/>
     </row>
     <row r="19" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="21"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="66" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -2153,18 +2152,18 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
-      <c r="AB19" s="59"/>
+      <c r="AB19" s="58"/>
     </row>
     <row r="20" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="66" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="53"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -2185,17 +2184,17 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
-      <c r="AB20" s="59"/>
+      <c r="AB20" s="58"/>
     </row>
     <row r="21" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="66" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -2217,44 +2216,46 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
-      <c r="AB21" s="59"/>
+      <c r="AB21" s="58"/>
     </row>
-    <row r="22" spans="1:28" s="57" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="65" t="s">
+    <row r="22" spans="1:28" s="56" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="60"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="59"/>
     </row>
     <row r="23" spans="1:28" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="D21:F21"/>
@@ -2271,8 +2272,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2287,8 +2286,8 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2335,28 +2334,28 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="62"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="2:10" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="18">
         <v>42802</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="61"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -2633,11 +2632,11 @@
         <v>2 Day(s)</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H16" s="7">
         <f>tblToDoList[[#This Row],[% Done]]</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>27</v>
@@ -2822,141 +2821,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">845884</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-06-28T22:28:16+00:00</AssetStart>
-    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
-    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Value>1589969</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId>2566</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
-    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
-    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
-    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
-    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
-    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsSearchable>
-    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
-    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102929978</AssetId>
-    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
-    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
-    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101006EDDDB5EE6D98C44930B742096920B300400F5B6D36B3EF94B4E9A635CDF2A18F5B8" ma:contentTypeVersion="72" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a23e56308344d904b51738559c3d67c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4873beb7-5857-4685-be1f-d57550cc96cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd0908cc4600e77bf5da051303e00c8d" ns2:_="">
     <xsd:import namespace="4873beb7-5857-4685-be1f-d57550cc96cc"/>
@@ -3996,31 +3860,142 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF14A3F8-E631-45ED-BAB0-F6B4C56D5460}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F9C745-E09A-4668-8378-93EF7953239B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetExpire xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPFriendlyName xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReview xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">845884</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SubmitterId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AcquiredFrom xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Markets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <OriginAsset xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetStart xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">2012-06-28T22:28:16+00:00</AssetStart>
+    <FriendlyTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <MarketSpecific xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MarketSpecific>
+    <TPNamespace xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Value>1589969</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId>2566</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OpenTemplate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <Manager xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <NumericId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ParentAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ApprovalStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">InProgress</ApprovalStatus>
+    <TPComponent xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <EditorialTags xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPExecutable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <SourceTitle xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXUpdate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CSXUpdate>
+    <IntlLocPriority xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <MachineTranslated xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</MachineTranslated>
+    <OutputCachingOn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</OutputCachingOn>
+    <TemplateStatus xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Complete</TemplateStatus>
+    <IsSearchable xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsSearchable>
+    <ContentItem xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ShowIn xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocComments xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UALocRecommendation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LegacyData xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ClipArtFilename xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPApplication xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXHash xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <PrimaryImageGen xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Downloads xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">0</Downloads>
+    <ArtSampleDocs xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TrustLevel xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Providers xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <TPAppVersion xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <VoteCount xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AverageRating xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <UACurrentWords xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <AssetId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">TP102929978</AssetId>
+    <TPClientViewer xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <DSATActionTaken xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <APEditor xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OOCacheId xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <IsDeleted xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</IsDeleted>
+    <PublishTargets xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <BugNumber xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <Milestone xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <OriginalRelease xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">15</OriginalRelease>
+    <RecommendationsModifier xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="4873beb7-5857-4685-be1f-d57550cc96cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="4873beb7-5857-4685-be1f-d57550cc96cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{669C7D95-0EE0-4769-AC8E-827159D2F436}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4036,4 +4011,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F9C745-E09A-4668-8378-93EF7953239B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF14A3F8-E631-45ED-BAB0-F6B4C56D5460}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4873beb7-5857-4685-be1f-d57550cc96cc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>